--- a/Ele_Charge_Analysis/total analysis/result_data/charge_demand_coef.xlsx
+++ b/Ele_Charge_Analysis/total analysis/result_data/charge_demand_coef.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DataAnalysisStudy\Ele_Charge_Analysis\total analysis\result_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -109,12 +114,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -122,8 +127,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -169,15 +181,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -219,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +271,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,6 +306,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,14 +482,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,21 +505,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.688203813841962</v>
+        <v>1.6882038138419619</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.688203813841962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.6882038138419619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -509,7 +533,7 @@
         <v>1.650267547675123</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -523,7 +547,7 @@
         <v>1.522088568562173</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -537,7 +561,7 @@
         <v>1.392477013460081</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -551,35 +575,35 @@
         <v>1.272520924735143</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.144275516170613</v>
+        <v>1.1442755161706131</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.144275516170613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1.1442755161706131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1.138359576282134</v>
+        <v>1.1383595762821339</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.138359576282134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1.1383595762821339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -593,26 +617,26 @@
         <v>0.9873792386452247</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.9657116411810303</v>
+        <v>0.96571164118103026</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9657116411810303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.96571164118103026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2.946003357462594</v>
+        <v>2.9460033574625939</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -621,21 +645,21 @@
         <v>0.9460033574625939</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.9396553413735093</v>
+        <v>0.93965534137350926</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9396553413735093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.93965534137350926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -646,38 +670,38 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>0.9027803500687446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.90278035006874457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.8296263265709373</v>
+        <v>0.82962632657093727</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.8296263265709373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.82962632657093727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.8056607071277976</v>
+        <v>0.80566070712779758</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.8056607071277976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.80566070712779758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -691,49 +715,49 @@
         <v>0.8008901518237046</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.7943257085046863</v>
+        <v>0.79432570850468631</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.7943257085046863</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.79432570850468631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.7482908822439902</v>
+        <v>0.74829088224399021</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.7482908822439902</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.74829088224399021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.74155608615226</v>
+        <v>0.74155608615225999</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.74155608615226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.74155608615225999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -744,15 +768,15 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.6879283617772858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.68792836177728578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21">
-        <v>1.672266600049137</v>
+        <v>1.6722666000491371</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -761,7 +785,7 @@
         <v>0.6722666000491373</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -772,10 +796,10 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>0.6001036207719475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.60010362077194745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -786,66 +810,67 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>0.5982322091922865</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.59823220919228648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.5910075739091545</v>
+        <v>0.59100757390915448</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5910075739091545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.59100757390915448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.5893321728082201</v>
+        <v>0.58933217280822014</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.5893321728082201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.58933217280822014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.5821856634086739</v>
+        <v>0.58218566340867395</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.5821856634086739</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.58218566340867395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.5183922235964541</v>
+        <v>0.51839222359645409</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.5183922235964541</v>
+        <v>0.51839222359645409</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>